--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 млрсч ост сыр.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 млрсч ост сыр.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\10,06,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\06,25\10,06,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB08FC-D76F-4F8F-A73E-546C0066C0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FE98A-1753-4064-BB4E-23225EAA659C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -309,6 +306,9 @@
       </rPr>
       <t xml:space="preserve"> / 03,03,25 завод не отгрузил</t>
     </r>
+  </si>
+  <si>
+    <t>заказ</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,55 +1020,55 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1104,45 +1104,47 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1282,10 +1284,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>107</v>
@@ -1364,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="AE6" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" ref="AF6:AF12" si="3">G6*P6</f>
@@ -1391,10 +1393,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>210</v>
@@ -1503,10 +1505,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>219</v>
@@ -1587,7 +1589,7 @@
         <v>14.4</v>
       </c>
       <c r="AE8" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="3"/>
@@ -1614,10 +1616,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>140</v>
@@ -1696,7 +1698,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AE9" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="3"/>
@@ -1723,10 +1725,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>159</v>
@@ -1803,7 +1805,7 @@
         <v>2.8</v>
       </c>
       <c r="AE10" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="3"/>
@@ -1830,10 +1832,10 @@
     </row>
     <row r="11" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
         <v>381</v>
@@ -1915,7 +1917,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="3"/>
@@ -1942,10 +1944,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -2039,10 +2041,10 @@
     </row>
     <row r="13" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="C13" s="27">
         <v>80.7</v>
@@ -2061,7 +2063,7 @@
         <v>#N/A</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="30">
         <v>7</v>
@@ -2119,7 +2121,7 @@
         <v>0.90879999999999994</v>
       </c>
       <c r="AE13" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF13" s="30"/>
       <c r="AG13" s="1"/>
@@ -2143,10 +2145,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>70</v>
@@ -2225,7 +2227,7 @@
         <v>10.4</v>
       </c>
       <c r="AE14" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" ref="AF14:AF21" si="8">G14*P14</f>
@@ -2252,10 +2254,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>1103</v>
@@ -2360,10 +2362,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>912</v>
@@ -2444,7 +2446,7 @@
         <v>68.8</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="8"/>
@@ -2471,10 +2473,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>651</v>
@@ -2556,7 +2558,7 @@
         <v>50</v>
       </c>
       <c r="AE17" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="8"/>
@@ -2583,10 +2585,10 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>392</v>
@@ -2692,10 +2694,10 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>1183</v>
@@ -2804,10 +2806,10 @@
     </row>
     <row r="20" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>684</v>
@@ -2914,10 +2916,10 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="17">
         <v>60</v>
@@ -3024,10 +3026,10 @@
     </row>
     <row r="22" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27">
@@ -3046,7 +3048,7 @@
         <v>#N/A</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="30">
         <v>3.5</v>
@@ -3126,10 +3128,10 @@
     </row>
     <row r="23" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
         <v>122</v>
@@ -3234,10 +3236,10 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -3306,7 +3308,7 @@
         <v>-0.5776</v>
       </c>
       <c r="AE24" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF24" s="14">
         <f>G24*P24</f>
@@ -3333,10 +3335,10 @@
     </row>
     <row r="25" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27">
@@ -3355,7 +3357,7 @@
         <v>#N/A</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="30">
         <v>10.5</v>
@@ -3435,10 +3437,10 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="17">
         <v>65</v>
@@ -3542,10 +3544,10 @@
     </row>
     <row r="27" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27">
@@ -3562,7 +3564,7 @@
         <v>#N/A</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30">
@@ -3640,10 +3642,10 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>96</v>
@@ -3747,10 +3749,10 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
         <v>262.3</v>
@@ -3857,10 +3859,10 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
         <v>89</v>
@@ -3939,7 +3941,7 @@
         <v>10.6</v>
       </c>
       <c r="AE30" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="1">
         <f t="shared" si="10"/>
@@ -3966,10 +3968,10 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>428</v>
@@ -4050,7 +4052,7 @@
         <v>30.6</v>
       </c>
       <c r="AE31" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="10"/>
@@ -4077,10 +4079,10 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1">
         <v>301</v>
@@ -4187,10 +4189,10 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>150</v>
@@ -4294,10 +4296,10 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>171</v>
@@ -4404,10 +4406,10 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <v>419</v>
@@ -4489,7 +4491,7 @@
         <v>33.4</v>
       </c>
       <c r="AE35" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF35" s="1">
         <f t="shared" si="10"/>
@@ -4516,10 +4518,10 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <v>362</v>
@@ -4596,7 +4598,7 @@
         <v>24.780999999999999</v>
       </c>
       <c r="AE36" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF36" s="1">
         <f t="shared" si="10"/>
@@ -4623,10 +4625,10 @@
     </row>
     <row r="37" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>127</v>
@@ -4707,7 +4709,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="AE37" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF37" s="1">
         <f t="shared" si="10"/>
@@ -4734,10 +4736,10 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="17">
         <v>495</v>
@@ -4817,7 +4819,7 @@
         <v>66.047799999999995</v>
       </c>
       <c r="AE38" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF38" s="1">
         <f t="shared" si="10"/>
@@ -4844,10 +4846,10 @@
     </row>
     <row r="39" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27">
@@ -4866,7 +4868,7 @@
         <v>#N/A</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39" s="30">
         <v>21</v>
@@ -4998,10 +5000,10 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="17">
         <v>637</v>
@@ -5106,10 +5108,10 @@
     </row>
     <row r="42" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="C42" s="27">
         <v>696</v>
@@ -5128,7 +5130,7 @@
         <v>#N/A</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="30">
@@ -5184,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -5208,10 +5210,10 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
         <v>3341</v>
